--- a/data/environmental_facilities/data.xlsx
+++ b/data/environmental_facilities/data.xlsx
@@ -1,46 +1,208 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoppy/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE62177-F503-3C46-96A9-3594E138A0C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+  <si>
+    <t>#property</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>telephoneNumber</t>
+  </si>
+  <si>
+    <t>referenceObject</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>availableDate</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>availableDateNote</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>34.2623891</t>
+  </si>
+  <si>
+    <t>134.0148103</t>
+  </si>
+  <si>
+    <t>高松市西部クリーンセンター</t>
+  </si>
+  <si>
+    <t>高松市川部町930-1</t>
+  </si>
+  <si>
+    <t>087-885-2727</t>
+  </si>
+  <si>
+    <t>http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/seibu_clean.html</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>月火水木金土</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>利用可能曜日は祝祭日及び年末年始を除く。破砕ごみの搬入受付は15：00まで。ただし、土曜日は12：00まで。なお、破砕ごみの一般持込みは土曜日のみ。</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>34.19943</t>
+  </si>
+  <si>
+    <t>134.03223</t>
+  </si>
+  <si>
+    <t>高松市南部クリーンセンター</t>
+  </si>
+  <si>
+    <t>高松市塩江町安原下第3号2084-1</t>
+  </si>
+  <si>
+    <t>087-890-2190</t>
+  </si>
+  <si>
+    <t>http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/nanbu_clean.html</t>
+  </si>
+  <si>
+    <t>月火水木金</t>
+  </si>
+  <si>
+    <t>利用可能曜日は年末年始を除く。破砕、粗大ごみの搬入受付は16:00まで。</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>34.35143</t>
+  </si>
+  <si>
+    <t>134.07846</t>
+  </si>
+  <si>
+    <t>高松市衛生センター</t>
+  </si>
+  <si>
+    <t>高松市朝日町五丁目5-56</t>
+  </si>
+  <si>
+    <t>087-821-0428</t>
+  </si>
+  <si>
+    <t>http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/eisei.html</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>利用可能曜日は祝祭日除く。し尿等収集運搬許可業者のみ搬入可</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>34.33889</t>
+  </si>
+  <si>
+    <t>134.07206</t>
+  </si>
+  <si>
+    <t>高松市環境業務センター</t>
+  </si>
+  <si>
+    <t>高松市木太町2282-1</t>
+  </si>
+  <si>
+    <t>（環境業務課）087-834-0389、087-861-4524（環境指導課）087-839-2380（適正処理対策室）087-839-2370（環境保全推進課）087-839-2393</t>
+  </si>
+  <si>
+    <t>（環境業務課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/kankyogyomu.html（環境指導課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/kankyoshido.html（適正処理対策室）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/tekiseisyoritaisaku.html（環境保全推進課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/kankyohozen.html</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>※環境業務課・適正処理対策室の利用可能時間は8：00～16：45、環境指導課・環境保全推進課の利用可能時間は8：30～17：15</t>
+  </si>
+  <si>
+    <t>緯度</t>
+    <rPh sb="0" eb="2">
+      <t>イド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経度</t>
+    <rPh sb="0" eb="2">
+      <t>ケイd</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,10 +230,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,205 +566,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>#property</v>
-      </c>
-      <c r="B1" t="str">
-        <v>latitude</v>
-      </c>
-      <c r="C1" t="str">
-        <v>longitude</v>
-      </c>
-      <c r="D1" t="str">
-        <v>name</v>
-      </c>
-      <c r="E1" t="str">
-        <v>address</v>
-      </c>
-      <c r="F1" t="str">
-        <v>telephoneNumber</v>
-      </c>
-      <c r="G1" t="str">
-        <v>referenceObject</v>
-      </c>
-      <c r="H1" t="str">
-        <v>note</v>
-      </c>
-      <c r="I1" t="str">
-        <v>availableDate</v>
-      </c>
-      <c r="J1" t="str">
-        <v>startTime</v>
-      </c>
-      <c r="K1" t="str">
-        <v>endTime</v>
-      </c>
-      <c r="L1" t="str">
-        <v>availableDateNote</v>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>34.2623891</v>
-      </c>
-      <c r="C2" t="str">
-        <v>134.0148103</v>
-      </c>
-      <c r="D2" t="str">
-        <v>高松市西部クリーンセンター</v>
-      </c>
-      <c r="E2" t="str">
-        <v>高松市川部町930-1</v>
-      </c>
-      <c r="F2" t="str">
-        <v>087-885-2727</v>
-      </c>
-      <c r="G2" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/seibu_clean.html</v>
-      </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <v>月火水木金土</v>
-      </c>
-      <c r="J2" t="str">
-        <v>08:30</v>
-      </c>
-      <c r="K2" t="str">
-        <v>16:30</v>
-      </c>
-      <c r="L2" t="str">
-        <v>利用可能曜日は祝祭日及び年末年始を除く。破砕ごみの搬入受付は15：00まで。ただし、土曜日は12：00まで。なお、破砕ごみの一般持込みは土曜日のみ。</v>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>34.19943</v>
-      </c>
-      <c r="C3" t="str">
-        <v>134.03223</v>
-      </c>
-      <c r="D3" t="str">
-        <v>高松市南部クリーンセンター</v>
-      </c>
-      <c r="E3" t="str">
-        <v>高松市塩江町安原下第3号2084-1</v>
-      </c>
-      <c r="F3" t="str">
-        <v>087-890-2190</v>
-      </c>
-      <c r="G3" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/nanbu_clean.html</v>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="J3" t="str">
-        <v>08:30</v>
-      </c>
-      <c r="K3" t="str">
-        <v>16:30</v>
-      </c>
-      <c r="L3" t="str">
-        <v>利用可能曜日は年末年始を除く。破砕、粗大ごみの搬入受付は16:00まで。</v>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>34.35143</v>
-      </c>
-      <c r="C4" t="str">
-        <v>134.07846</v>
-      </c>
-      <c r="D4" t="str">
-        <v>高松市衛生センター</v>
-      </c>
-      <c r="E4" t="str">
-        <v>高松市朝日町五丁目5-56</v>
-      </c>
-      <c r="F4" t="str">
-        <v>087-821-0428</v>
-      </c>
-      <c r="G4" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/eisei.html</v>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="J4" t="str">
-        <v>08:00</v>
-      </c>
-      <c r="K4" t="str">
-        <v>16:00</v>
-      </c>
-      <c r="L4" t="str">
-        <v>利用可能曜日は祝祭日除く。し尿等収集運搬許可業者のみ搬入可</v>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>34.33889</v>
-      </c>
-      <c r="C5" t="str">
-        <v>134.07206</v>
-      </c>
-      <c r="D5" t="str">
-        <v>高松市環境業務センター</v>
-      </c>
-      <c r="E5" t="str">
-        <v>高松市木太町2282-1</v>
-      </c>
-      <c r="F5" t="str">
-        <v>（環境業務課）087-834-0389、087-861-4524（環境指導課）087-839-2380（適正処理対策室）087-839-2370（環境保全推進課）087-839-2393</v>
-      </c>
-      <c r="G5" t="str">
-        <v>（環境業務課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/kankyogyomu.html（環境指導課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/kankyoshido.html（適正処理対策室）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/tekiseisyoritaisaku.html（環境保全推進課）http://www.city.takamatsu.kagawa.jp/kurashi/shinotorikumi/soshikihyo/kankyohozen.html</v>
-      </c>
-      <c r="H5" t="str">
-        <v/>
-      </c>
-      <c r="I5" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="J5" t="str">
-        <v>08:00</v>
-      </c>
-      <c r="K5" t="str">
-        <v>17:15</v>
-      </c>
-      <c r="L5" t="str">
-        <v>※環境業務課・適正処理対策室の利用可能時間は8：00～16：45、環境指導課・環境保全推進課の利用可能時間は8：30～17：15</v>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError sqref="A2:L5 A1 D1:L1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>